--- a/0OCTAVO0/Data mining/minning/bayes/dataset-input_lentes.xlsx
+++ b/0OCTAVO0/Data mining/minning/bayes/dataset-input_lentes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documentos\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577B466A-EC52-444E-8FE7-6462B43772D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429A693C-5D40-4B68-B7EE-7DCE29B43D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-99" yWindow="-99" windowWidth="21303" windowHeight="11344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
     <sheet name="prediccion" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -400,16 +401,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -426,7 +427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -443,7 +444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -460,7 +461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -477,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,7 +495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -511,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -528,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -545,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -562,7 +563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -579,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -596,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -613,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -630,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -647,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -664,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -681,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -698,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -715,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -732,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -749,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -766,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -783,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -800,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -817,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -843,20 +844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001122D6-695A-4AB2-801D-A36E9B925C6A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -884,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -898,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -912,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -929,4 +930,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EDEDA7-E7ED-4001-968C-1212E4CE5928}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>